--- a/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="16008" windowHeight="12696" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="12780" yWindow="0" windowWidth="16008" windowHeight="12696" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="15" r:id="rId1"/>
@@ -1669,45 +1669,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1728,6 +1689,45 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2053,16 +2053,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="85" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       <c r="A5" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="84" t="s">
         <v>257</v>
       </c>
       <c r="C5" t="s">
@@ -2084,7 +2084,7 @@
       <c r="A6" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="84" t="s">
         <v>259</v>
       </c>
       <c r="C6" t="s">
@@ -2098,7 +2098,7 @@
       <c r="A7" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="84" t="s">
         <v>262</v>
       </c>
       <c r="C7" t="s">
@@ -2190,17 +2190,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -2232,106 +2232,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2546,10 +2546,10 @@
       <c r="B44" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="96"/>
+      <c r="D44" s="103"/>
     </row>
     <row r="45" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -2558,10 +2558,10 @@
       <c r="B45" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="93">
+      <c r="C45" s="100">
         <v>41422</v>
       </c>
-      <c r="D45" s="94"/>
+      <c r="D45" s="101"/>
     </row>
     <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -2570,10 +2570,10 @@
       <c r="B46" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="100">
         <v>41422</v>
       </c>
-      <c r="D46" s="94"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
@@ -2582,10 +2582,10 @@
       <c r="B47" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="93">
+      <c r="C47" s="100">
         <v>41422</v>
       </c>
-      <c r="D47" s="94"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
@@ -2594,10 +2594,10 @@
       <c r="B48" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="93">
+      <c r="C48" s="100">
         <v>41422</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="101"/>
     </row>
     <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
@@ -2606,10 +2606,10 @@
       <c r="B49" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="93">
+      <c r="C49" s="100">
         <v>41422</v>
       </c>
-      <c r="D49" s="94"/>
+      <c r="D49" s="101"/>
     </row>
     <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
@@ -2618,10 +2618,10 @@
       <c r="B50" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="93">
+      <c r="C50" s="100">
         <v>41422</v>
       </c>
-      <c r="D50" s="94"/>
+      <c r="D50" s="101"/>
     </row>
     <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
@@ -2630,10 +2630,10 @@
       <c r="B51" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="93">
+      <c r="C51" s="100">
         <v>41422</v>
       </c>
-      <c r="D51" s="94"/>
+      <c r="D51" s="101"/>
     </row>
     <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
@@ -2642,10 +2642,10 @@
       <c r="B52" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="93">
+      <c r="C52" s="100">
         <v>41422</v>
       </c>
-      <c r="D52" s="94"/>
+      <c r="D52" s="101"/>
     </row>
     <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
@@ -2654,10 +2654,10 @@
       <c r="B53" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="93">
+      <c r="C53" s="100">
         <v>41422</v>
       </c>
-      <c r="D53" s="94"/>
+      <c r="D53" s="101"/>
     </row>
     <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
@@ -2666,10 +2666,10 @@
       <c r="B54" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="93">
+      <c r="C54" s="100">
         <v>41422</v>
       </c>
-      <c r="D54" s="94"/>
+      <c r="D54" s="101"/>
     </row>
     <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
@@ -2678,10 +2678,10 @@
       <c r="B55" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="93">
+      <c r="C55" s="100">
         <v>41422</v>
       </c>
-      <c r="D55" s="94"/>
+      <c r="D55" s="101"/>
     </row>
     <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
@@ -2690,10 +2690,10 @@
       <c r="B56" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="93">
+      <c r="C56" s="100">
         <v>41422</v>
       </c>
-      <c r="D56" s="94"/>
+      <c r="D56" s="101"/>
     </row>
     <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
@@ -2702,10 +2702,10 @@
       <c r="B57" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="93">
+      <c r="C57" s="100">
         <v>41422</v>
       </c>
-      <c r="D57" s="94"/>
+      <c r="D57" s="101"/>
     </row>
     <row r="58" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
@@ -2714,22 +2714,22 @@
       <c r="B58" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="93">
+      <c r="C58" s="100">
         <v>41422</v>
       </c>
-      <c r="D58" s="94"/>
-    </row>
-    <row r="59" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="D58" s="101"/>
+    </row>
+    <row r="59" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>183</v>
       </c>
       <c r="B59" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="93">
+      <c r="C59" s="100">
         <v>41422</v>
       </c>
-      <c r="D59" s="94"/>
+      <c r="D59" s="101"/>
     </row>
     <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
@@ -2738,10 +2738,10 @@
       <c r="B60" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="93">
+      <c r="C60" s="100">
         <v>41422</v>
       </c>
-      <c r="D60" s="94"/>
+      <c r="D60" s="101"/>
     </row>
     <row r="61" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
@@ -2750,10 +2750,10 @@
       <c r="B61" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="93">
+      <c r="C61" s="100">
         <v>41422</v>
       </c>
-      <c r="D61" s="94"/>
+      <c r="D61" s="101"/>
     </row>
     <row r="62" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
@@ -2762,10 +2762,10 @@
       <c r="B62" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="93">
+      <c r="C62" s="100">
         <v>41422</v>
       </c>
-      <c r="D62" s="94"/>
+      <c r="D62" s="101"/>
     </row>
     <row r="63" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
@@ -2774,10 +2774,10 @@
       <c r="B63" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="93">
+      <c r="C63" s="100">
         <v>41422</v>
       </c>
-      <c r="D63" s="94"/>
+      <c r="D63" s="101"/>
     </row>
     <row r="64" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
@@ -2786,10 +2786,10 @@
       <c r="B64" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="93">
+      <c r="C64" s="100">
         <v>41422</v>
       </c>
-      <c r="D64" s="94"/>
+      <c r="D64" s="101"/>
     </row>
     <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
@@ -2798,10 +2798,10 @@
       <c r="B65" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="93">
+      <c r="C65" s="100">
         <v>41422</v>
       </c>
-      <c r="D65" s="94"/>
+      <c r="D65" s="101"/>
     </row>
     <row r="66" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
@@ -2810,10 +2810,10 @@
       <c r="B66" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="93">
+      <c r="C66" s="100">
         <v>41422</v>
       </c>
-      <c r="D66" s="94"/>
+      <c r="D66" s="101"/>
     </row>
     <row r="67" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
@@ -2822,10 +2822,10 @@
       <c r="B67" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="93">
+      <c r="C67" s="100">
         <v>41422</v>
       </c>
-      <c r="D67" s="94"/>
+      <c r="D67" s="101"/>
     </row>
     <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
@@ -2834,10 +2834,10 @@
       <c r="B68" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="93">
+      <c r="C68" s="100">
         <v>41422</v>
       </c>
-      <c r="D68" s="94"/>
+      <c r="D68" s="101"/>
     </row>
     <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
@@ -2846,10 +2846,10 @@
       <c r="B69" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="93">
+      <c r="C69" s="100">
         <v>41422</v>
       </c>
-      <c r="D69" s="94"/>
+      <c r="D69" s="101"/>
     </row>
     <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
@@ -2858,10 +2858,10 @@
       <c r="B70" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="93">
+      <c r="C70" s="100">
         <v>41422</v>
       </c>
-      <c r="D70" s="94"/>
+      <c r="D70" s="101"/>
     </row>
     <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
@@ -2870,10 +2870,10 @@
       <c r="B71" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="93">
+      <c r="C71" s="100">
         <v>41422</v>
       </c>
-      <c r="D71" s="94"/>
+      <c r="D71" s="101"/>
     </row>
     <row r="72" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
@@ -2882,10 +2882,10 @@
       <c r="B72" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="93">
+      <c r="C72" s="100">
         <v>41422</v>
       </c>
-      <c r="D72" s="94"/>
+      <c r="D72" s="101"/>
     </row>
     <row r="73" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
@@ -2894,22 +2894,22 @@
       <c r="B73" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="93">
+      <c r="C73" s="100">
         <v>41422</v>
       </c>
-      <c r="D73" s="94"/>
-    </row>
-    <row r="74" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="D73" s="101"/>
+    </row>
+    <row r="74" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
         <v>155</v>
       </c>
       <c r="B74" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="93">
+      <c r="C74" s="100">
         <v>41422</v>
       </c>
-      <c r="D74" s="94"/>
+      <c r="D74" s="101"/>
     </row>
     <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
@@ -2918,10 +2918,10 @@
       <c r="B75" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="93">
+      <c r="C75" s="100">
         <v>41422</v>
       </c>
-      <c r="D75" s="94"/>
+      <c r="D75" s="101"/>
     </row>
     <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
@@ -2930,10 +2930,10 @@
       <c r="B76" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="93">
+      <c r="C76" s="100">
         <v>41422</v>
       </c>
-      <c r="D76" s="94"/>
+      <c r="D76" s="101"/>
     </row>
     <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
@@ -2942,10 +2942,10 @@
       <c r="B77" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="93">
+      <c r="C77" s="100">
         <v>41422</v>
       </c>
-      <c r="D77" s="94"/>
+      <c r="D77" s="101"/>
     </row>
     <row r="78" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
@@ -2954,42 +2954,29 @@
       <c r="B78" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="93" t="s">
+      <c r="C78" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="94"/>
+      <c r="D78" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -3006,22 +2993,35 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3099,17 +3099,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3141,106 +3141,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -3400,10 +3400,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="96"/>
+      <c r="D43" s="103"/>
     </row>
     <row r="44" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -3412,47 +3412,65 @@
       <c r="B44" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -3469,24 +3487,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3561,17 +3561,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3603,106 +3603,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -3853,10 +3853,10 @@
       <c r="B42" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="96"/>
+      <c r="D42" s="103"/>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
@@ -3865,74 +3865,49 @@
       <c r="B43" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="93">
+      <c r="C43" s="100">
         <v>41490</v>
       </c>
-      <c r="D43" s="94"/>
+      <c r="D43" s="101"/>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
@@ -3942,6 +3917,31 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4018,17 +4018,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4060,106 +4060,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -4303,54 +4303,521 @@
       <c r="B41" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="96"/>
+      <c r="D41" s="103"/>
     </row>
     <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
         <v>204</v>
       </c>
       <c r="B42" s="38"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.91527777777777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="105"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="105"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="105"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="105"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="105"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="105"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="102"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="103"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="100">
+        <v>41432</v>
+      </c>
+      <c r="D42" s="101"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4390,16 +4857,15 @@
     <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4425,12 +4891,12 @@
         <v>41424</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>44</v>
@@ -4452,54 +4918,54 @@
         <v>46</v>
       </c>
       <c r="B4" s="69">
-        <v>0.84652777777777777</v>
+        <v>0.9375</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="69">
-        <v>0.91527777777777775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="B7" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4507,106 +4973,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -4628,10 +5094,10 @@
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.9375</v>
       </c>
       <c r="C29" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.93819444444444444</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>233</v>
@@ -4643,10 +5109,10 @@
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.93819444444444444</v>
       </c>
       <c r="C30" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.93958333333333333</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>95</v>
@@ -4658,92 +5124,68 @@
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="C31" s="39">
-        <v>0.84861111111111109</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
       <c r="B32" s="39">
-        <v>0.86805555555555547</v>
+        <v>0.99375000000000002</v>
       </c>
       <c r="C32" s="39">
-        <v>0.86805555555555547</v>
+        <v>5.0694444444444452E-2</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49"/>
       <c r="B33" s="39">
-        <v>0.86805555555555547</v>
+        <v>5.0694444444444452E-2</v>
       </c>
       <c r="C33" s="39">
-        <v>0.88194444444444453</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>235</v>
-      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49"/>
-      <c r="B35" s="39">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C35" s="39">
-        <v>0.91319444444444453</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>235</v>
-      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="49"/>
-      <c r="B36" s="39">
-        <v>0.91388888888888886</v>
-      </c>
-      <c r="C36" s="39">
-        <v>0.91527777777777775</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>235</v>
-      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="49"/>
@@ -4760,64 +5202,464 @@
       <c r="E38" s="54"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="96"/>
+      <c r="D41" s="103"/>
+    </row>
+    <row r="42" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+    </row>
+    <row r="43" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+    </row>
+    <row r="44" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="105"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="105"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="105"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="105"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="105"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="105"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="102"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="103"/>
     </row>
     <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="93">
-        <v>41432</v>
-      </c>
-      <c r="D42" s="94"/>
+        <v>144</v>
+      </c>
+      <c r="C42" s="100">
+        <v>41425</v>
+      </c>
+      <c r="D42" s="101"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4860,848 +5702,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.9375</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="69">
-        <v>5.4166666666666669E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="91"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="91"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="91"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="91"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="91"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="91"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="95"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.99375000000000002</v>
-      </c>
-      <c r="C32" s="39">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="C33" s="39">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="96"/>
-    </row>
-    <row r="42" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-    </row>
-    <row r="43" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-    </row>
-    <row r="44" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.42777777777777781</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="69"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="91"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="91"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="91"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="91"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="91"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="91"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="95"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="96"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="93">
-        <v>41425</v>
-      </c>
-      <c r="D42" s="94"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
@@ -5738,14 +5738,14 @@
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="85"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="96" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="87"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
@@ -6363,10 +6363,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6386,29 +6385,29 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="4" spans="1:12" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
@@ -6481,7 +6480,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>2</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>5</v>
       </c>
@@ -6607,7 +6606,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>6</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>10</v>
       </c>
@@ -6766,7 +6765,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>11</v>
       </c>
@@ -6784,7 +6783,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
@@ -6797,15 +6796,6 @@
       <c r="J16" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L16">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="36"/>
-        <filter val="54"/>
-        <filter val="81"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
@@ -7075,40 +7065,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="86" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="100" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="103">
+      <c r="F3" s="90">
         <v>4.5</v>
       </c>
       <c r="G3">
@@ -7119,150 +7109,150 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="100" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="103">
+      <c r="F4" s="90">
         <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="103">
+      <c r="F5" s="90">
         <v>24.1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="103">
+      <c r="F6" s="90">
         <v>13.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="100" t="s">
+      <c r="D7" s="89"/>
+      <c r="E7" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F7" s="90">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="100" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="90">
         <v>8.9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="100" t="s">
+      <c r="D9" s="89"/>
+      <c r="E9" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="90">
         <v>14.3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="100" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="90">
         <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="90">
         <v>22</v>
       </c>
       <c r="G14">
@@ -7273,144 +7263,144 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="100" t="s">
+      <c r="D15" s="89"/>
+      <c r="E15" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="F15" s="103">
+      <c r="F15" s="90">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="100" t="s">
+      <c r="D16" s="91"/>
+      <c r="E16" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="90">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="100" t="s">
+      <c r="D17" s="91"/>
+      <c r="E17" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="92">
         <f>F16/2</f>
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="88" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="100" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="105">
+      <c r="F19" s="92">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="100" t="s">
+      <c r="D20" s="91"/>
+      <c r="E20" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="92">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="106">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="93">
         <f>SUM(F14:F20)</f>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="106"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="93"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="100"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="87"/>
       <c r="F23">
         <v>5</v>
       </c>
@@ -7422,95 +7412,95 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="100"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="87"/>
       <c r="F24">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="100"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="87"/>
       <c r="F25">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="100"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="87"/>
       <c r="F26">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="104"/>
+      <c r="D27" s="91"/>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="104"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="91"/>
       <c r="F28">
         <f>SUM(F23:F27)</f>
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="104"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="91"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="D30" s="104"/>
+      <c r="D30" s="91"/>
       <c r="F30">
         <v>5</v>
       </c>
@@ -7522,16 +7512,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="91" t="s">
         <v>302</v>
       </c>
       <c r="F31">
@@ -7539,16 +7529,16 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="91" t="s">
         <v>304</v>
       </c>
       <c r="F32">
@@ -7556,58 +7546,58 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="104"/>
+      <c r="D33" s="91"/>
       <c r="F33">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="D34" s="104"/>
+      <c r="D34" s="91"/>
       <c r="F34">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="101"/>
-      <c r="D35" s="104"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="91"/>
       <c r="F35">
         <f>SUM(F30:F34)</f>
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="101"/>
-      <c r="D36" s="104"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="91"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="D37" s="104"/>
+      <c r="D37" s="91"/>
       <c r="F37">
         <v>10</v>
       </c>
@@ -7619,16 +7609,16 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="91" t="s">
         <v>309</v>
       </c>
       <c r="F38">
@@ -7636,43 +7626,43 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="88" t="s">
         <v>310</v>
       </c>
-      <c r="D39" s="104"/>
+      <c r="D39" s="91"/>
       <c r="F39">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="D40" s="104"/>
+      <c r="D40" s="91"/>
       <c r="F40">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="88" t="s">
         <v>287</v>
       </c>
       <c r="F41">
@@ -7680,19 +7670,19 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
       <c r="F42">
         <f>SUM(F37:F41)</f>
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="100" t="s">
+      <c r="A44" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="88" t="s">
         <v>312</v>
       </c>
       <c r="D44">
@@ -7715,10 +7705,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="88" t="s">
         <v>314</v>
       </c>
       <c r="D45">
@@ -7741,10 +7731,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="88" t="s">
         <v>316</v>
       </c>
       <c r="D46">
@@ -7758,10 +7748,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="C47" s="101" t="s">
+      <c r="C47" s="88" t="s">
         <v>317</v>
       </c>
       <c r="D47">
@@ -7775,10 +7765,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="88" t="s">
         <v>318</v>
       </c>
       <c r="D48">
@@ -7800,7 +7790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -8254,17 +8244,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -8296,114 +8286,114 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -8561,10 +8551,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="96"/>
+      <c r="D43" s="103"/>
     </row>
     <row r="44" spans="1:5" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
@@ -8573,10 +8563,10 @@
       <c r="B44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="93">
+      <c r="C44" s="100">
         <v>41423</v>
       </c>
-      <c r="D44" s="94"/>
+      <c r="D44" s="101"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -8585,10 +8575,10 @@
       <c r="B45" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="94"/>
+      <c r="D45" s="101"/>
     </row>
     <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -8597,10 +8587,10 @@
       <c r="B46" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="100">
         <v>41423</v>
       </c>
-      <c r="D46" s="94"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
@@ -8609,10 +8599,10 @@
       <c r="B47" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="93">
+      <c r="C47" s="100">
         <v>41421</v>
       </c>
-      <c r="D47" s="94"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
@@ -8621,13 +8611,38 @@
       <c r="B48" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="93">
+      <c r="C48" s="100">
         <v>41421</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -8635,31 +8650,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8736,17 +8726,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -8778,106 +8768,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="91"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -9083,10 +9073,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="96"/>
+      <c r="D43" s="103"/>
     </row>
     <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -9095,10 +9085,10 @@
       <c r="B44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="94"/>
+      <c r="D44" s="101"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -9107,43 +9097,68 @@
       <c r="B45" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="93">
+      <c r="C45" s="100">
         <v>41422</v>
       </c>
-      <c r="D45" s="94"/>
+      <c r="D45" s="101"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -9153,31 +9168,6 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="16008" windowHeight="12696" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="12780" yWindow="0" windowWidth="2580" windowHeight="6888" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="15" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Minuta Junta 2" sheetId="7" r:id="rId9"/>
     <sheet name="Minuta Junta 3" sheetId="8" r:id="rId10"/>
     <sheet name="Minuta Junta 4" sheetId="5" r:id="rId11"/>
-    <sheet name="Minuta Junta 6" sheetId="10" r:id="rId12"/>
-    <sheet name="Minuta Junta 7" sheetId="11" r:id="rId13"/>
-    <sheet name="Minuta Junta 5" sheetId="12" r:id="rId14"/>
+    <sheet name="Minuta Junta 5" sheetId="12" r:id="rId12"/>
+    <sheet name="Minuta Junta 6" sheetId="10" r:id="rId13"/>
+    <sheet name="Minuta Junta 7" sheetId="11" r:id="rId14"/>
     <sheet name="Minuta Junta 8" sheetId="13" r:id="rId15"/>
-    <sheet name="PM" sheetId="14" r:id="rId16"/>
+    <sheet name="Minuta Junta 9" sheetId="17" r:id="rId16"/>
+    <sheet name="Minuta PM" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ITL Riesgos'!$A$4:$L$16</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="363">
   <si>
     <t>Measures</t>
   </si>
@@ -137,9 +138,6 @@
   </si>
   <si>
     <t>PIP Number</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>Improvement Description</t>
@@ -786,12 +784,6 @@
     <t>Carlos presentará las primeras 3 diapositivas de la presentación</t>
   </si>
   <si>
-    <t>Martha  presentará las primeras 3 diapositivas de la presentación</t>
-  </si>
-  <si>
-    <t>José  presentará las primeras 3 diapositivas de la presentación</t>
-  </si>
-  <si>
     <t>Planning for the Management Meeting</t>
   </si>
   <si>
@@ -1009,13 +1001,157 @@
   </si>
   <si>
     <t>Corrección y Verificación</t>
+  </si>
+  <si>
+    <t>Junta 5. Producir un plan de calidad</t>
+  </si>
+  <si>
+    <t>Junta 9</t>
+  </si>
+  <si>
+    <t>Martha  presentará las siguientes 4 diapositivas de la presentación</t>
+  </si>
+  <si>
+    <t>José  presentará las últimas 4 diapositivas de la presentación</t>
+  </si>
+  <si>
+    <t>Lanzamiento Junta 9: Reunión con gerencia del final de lanzamiento.</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>La presentación de gerencia no cunatificaba las metas</t>
+  </si>
+  <si>
+    <t>El coach tenga una revisión con la gerencia de la presentación antes de la reunón</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31/05/2013</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Problemas con la instalación / preparación de la herramienta</t>
+  </si>
+  <si>
+    <t>Falta de preparación en el diseño conceptual</t>
+  </si>
+  <si>
+    <t>Falta de dominio de la configuración de los datos en la herramienta.</t>
+  </si>
+  <si>
+    <t>Leer el manual completo de la herramienta de dashboard</t>
+  </si>
+  <si>
+    <t>Los scripts no estan en el orden en como se utiliza en la herramienta de dashboard</t>
+  </si>
+  <si>
+    <t>Modificar los scripts de acuerdo al funcionamiento de la herramienta de dashboard</t>
+  </si>
+  <si>
+    <t>No nos mantenemos enfocados en el problema a resolver</t>
+  </si>
+  <si>
+    <t>Asignar tiempo para definir y revisar el modelo completo. Generación de un checklist de revisión.</t>
+  </si>
+  <si>
+    <t>Dificultad para llegar a acuerdos</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empatia para ponerse de acuerdo.</t>
+  </si>
+  <si>
+    <t>Presentación gerencial</t>
+  </si>
+  <si>
+    <t>Configuración de ambiente</t>
+  </si>
+  <si>
+    <t>Preparación de diseño</t>
+  </si>
+  <si>
+    <t>Configuración de herramienta</t>
+  </si>
+  <si>
+    <t>Orden de los scripts de lanzamiento</t>
+  </si>
+  <si>
+    <t>Eficiencia en reuniones</t>
+  </si>
+  <si>
+    <t>Mejora en acuerdos</t>
+  </si>
+  <si>
+    <t>Priority
+L
+M
+H</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>Scripts de Lanzamiento</t>
+  </si>
+  <si>
+    <t>Contenido de la presentación de la gerencia</t>
+  </si>
+  <si>
+    <t>Checklist de revisión de modelos completo</t>
+  </si>
+  <si>
+    <t>Caracteristicas de una reunión efectiva</t>
+  </si>
+  <si>
+    <t>Enfocarnos en los problemas concretos a resolver. El moderador o cualquier otro participante debe estar consciente del problema en concreto. La agenda de la junta debe estar definida antes de la reunión y con tiempos estimados.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Launch Postmortem</t>
+  </si>
+  <si>
+    <t>Prepare PIPs</t>
+  </si>
+  <si>
+    <t>Launch Evaluation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1256,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Teen"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1147,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1450,13 +1592,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1689,6 +1844,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1727,6 +1888,86 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2046,35 +2287,35 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C4" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="85" t="s">
         <v>253</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>5518185963</v>
@@ -2082,27 +2323,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <v>5527977069</v>
@@ -2123,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:D16"/>
     </sheetView>
   </sheetViews>
@@ -2141,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -2152,21 +2393,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41422</v>
@@ -2174,13 +2415,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="55">
         <v>0.3979166666666667</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="55">
         <v>3.8194444444444441E-2</v>
@@ -2188,19 +2429,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -2228,129 +2469,129 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="56">
         <v>0.3979166666666667</v>
@@ -2359,11 +2600,11 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="56">
         <v>0.39999999999999997</v>
@@ -2372,11 +2613,11 @@
         <v>0.40625</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="56">
         <v>0.4069444444444445</v>
@@ -2385,11 +2626,11 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="56">
         <v>0.4826388888888889</v>
@@ -2398,11 +2639,11 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="56">
         <v>0.64930555555555558</v>
@@ -2411,11 +2652,11 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="56">
         <v>0.67986111111111114</v>
@@ -2424,11 +2665,11 @@
         <v>0.87916666666666676</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="57">
         <v>0.38750000000000001</v>
@@ -2437,11 +2678,11 @@
         <v>0.53680555555555554</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="57">
         <v>0.53749999999999998</v>
@@ -2450,11 +2691,11 @@
         <v>0.57361111111111118</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="57">
         <v>0.65</v>
@@ -2463,11 +2704,11 @@
         <v>0.73819444444444438</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="57">
         <v>0.74652777777777779</v>
@@ -2476,7 +2717,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" s="9"/>
     </row>
@@ -2489,7 +2730,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -2502,7 +2743,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40" s="9"/>
     </row>
@@ -2515,10 +2756,10 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2530,7 +2771,7 @@
         <v>3.6111111111111115E-2</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="54"/>
     </row>
@@ -2541,423 +2782,423 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="C44" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="103"/>
+      <c r="D44" s="105"/>
     </row>
     <row r="45" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="100">
+        <v>106</v>
+      </c>
+      <c r="C45" s="102">
         <v>41422</v>
       </c>
-      <c r="D45" s="101"/>
+      <c r="D45" s="103"/>
     </row>
     <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="100">
+        <v>105</v>
+      </c>
+      <c r="C46" s="102">
         <v>41422</v>
       </c>
-      <c r="D46" s="101"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="100">
+        <v>105</v>
+      </c>
+      <c r="C47" s="102">
         <v>41422</v>
       </c>
-      <c r="D47" s="101"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="100">
+        <v>105</v>
+      </c>
+      <c r="C48" s="102">
         <v>41422</v>
       </c>
-      <c r="D48" s="101"/>
+      <c r="D48" s="103"/>
     </row>
     <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="100">
+        <v>105</v>
+      </c>
+      <c r="C49" s="102">
         <v>41422</v>
       </c>
-      <c r="D49" s="101"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="100">
+        <v>105</v>
+      </c>
+      <c r="C50" s="102">
         <v>41422</v>
       </c>
-      <c r="D50" s="101"/>
+      <c r="D50" s="103"/>
     </row>
     <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="100">
+        <v>105</v>
+      </c>
+      <c r="C51" s="102">
         <v>41422</v>
       </c>
-      <c r="D51" s="101"/>
+      <c r="D51" s="103"/>
     </row>
     <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="100">
+        <v>105</v>
+      </c>
+      <c r="C52" s="102">
         <v>41422</v>
       </c>
-      <c r="D52" s="101"/>
+      <c r="D52" s="103"/>
     </row>
     <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="100">
+        <v>105</v>
+      </c>
+      <c r="C53" s="102">
         <v>41422</v>
       </c>
-      <c r="D53" s="101"/>
+      <c r="D53" s="103"/>
     </row>
     <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="100">
+        <v>105</v>
+      </c>
+      <c r="C54" s="102">
         <v>41422</v>
       </c>
-      <c r="D54" s="101"/>
+      <c r="D54" s="103"/>
     </row>
     <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="100">
+        <v>105</v>
+      </c>
+      <c r="C55" s="102">
         <v>41422</v>
       </c>
-      <c r="D55" s="101"/>
+      <c r="D55" s="103"/>
     </row>
     <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="100">
+        <v>105</v>
+      </c>
+      <c r="C56" s="102">
         <v>41422</v>
       </c>
-      <c r="D56" s="101"/>
+      <c r="D56" s="103"/>
     </row>
     <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="100">
+        <v>105</v>
+      </c>
+      <c r="C57" s="102">
         <v>41422</v>
       </c>
-      <c r="D57" s="101"/>
+      <c r="D57" s="103"/>
     </row>
     <row r="58" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="100">
+        <v>105</v>
+      </c>
+      <c r="C58" s="102">
         <v>41422</v>
       </c>
-      <c r="D58" s="101"/>
-    </row>
-    <row r="59" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="D58" s="103"/>
+    </row>
+    <row r="59" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="100">
+        <v>105</v>
+      </c>
+      <c r="C59" s="102">
         <v>41422</v>
       </c>
-      <c r="D59" s="101"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="100">
+        <v>105</v>
+      </c>
+      <c r="C60" s="102">
         <v>41422</v>
       </c>
-      <c r="D60" s="101"/>
+      <c r="D60" s="103"/>
     </row>
     <row r="61" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="100">
+        <v>105</v>
+      </c>
+      <c r="C61" s="102">
         <v>41422</v>
       </c>
-      <c r="D61" s="101"/>
+      <c r="D61" s="103"/>
     </row>
     <row r="62" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="100">
+        <v>105</v>
+      </c>
+      <c r="C62" s="102">
         <v>41422</v>
       </c>
-      <c r="D62" s="101"/>
+      <c r="D62" s="103"/>
     </row>
     <row r="63" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="100">
+        <v>105</v>
+      </c>
+      <c r="C63" s="102">
         <v>41422</v>
       </c>
-      <c r="D63" s="101"/>
+      <c r="D63" s="103"/>
     </row>
     <row r="64" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="100">
+        <v>105</v>
+      </c>
+      <c r="C64" s="102">
         <v>41422</v>
       </c>
-      <c r="D64" s="101"/>
+      <c r="D64" s="103"/>
     </row>
     <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="100">
+        <v>105</v>
+      </c>
+      <c r="C65" s="102">
         <v>41422</v>
       </c>
-      <c r="D65" s="101"/>
+      <c r="D65" s="103"/>
     </row>
     <row r="66" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="100">
+        <v>105</v>
+      </c>
+      <c r="C66" s="102">
         <v>41422</v>
       </c>
-      <c r="D66" s="101"/>
+      <c r="D66" s="103"/>
     </row>
     <row r="67" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="100">
+        <v>105</v>
+      </c>
+      <c r="C67" s="102">
         <v>41422</v>
       </c>
-      <c r="D67" s="101"/>
+      <c r="D67" s="103"/>
     </row>
     <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="100">
+        <v>105</v>
+      </c>
+      <c r="C68" s="102">
         <v>41422</v>
       </c>
-      <c r="D68" s="101"/>
+      <c r="D68" s="103"/>
     </row>
     <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="100">
+        <v>105</v>
+      </c>
+      <c r="C69" s="102">
         <v>41422</v>
       </c>
-      <c r="D69" s="101"/>
+      <c r="D69" s="103"/>
     </row>
     <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="100">
+        <v>105</v>
+      </c>
+      <c r="C70" s="102">
         <v>41422</v>
       </c>
-      <c r="D70" s="101"/>
+      <c r="D70" s="103"/>
     </row>
     <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" s="100">
+        <v>105</v>
+      </c>
+      <c r="C71" s="102">
         <v>41422</v>
       </c>
-      <c r="D71" s="101"/>
+      <c r="D71" s="103"/>
     </row>
     <row r="72" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="100">
+        <v>105</v>
+      </c>
+      <c r="C72" s="102">
         <v>41422</v>
       </c>
-      <c r="D72" s="101"/>
+      <c r="D72" s="103"/>
     </row>
     <row r="73" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="100">
+        <v>105</v>
+      </c>
+      <c r="C73" s="102">
         <v>41422</v>
       </c>
-      <c r="D73" s="101"/>
-    </row>
-    <row r="74" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D73" s="103"/>
+    </row>
+    <row r="74" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="100">
+        <v>105</v>
+      </c>
+      <c r="C74" s="102">
         <v>41422</v>
       </c>
-      <c r="D74" s="101"/>
+      <c r="D74" s="103"/>
     </row>
     <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="100">
+        <v>105</v>
+      </c>
+      <c r="C75" s="102">
         <v>41422</v>
       </c>
-      <c r="D75" s="101"/>
+      <c r="D75" s="103"/>
     </row>
     <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="100">
+        <v>105</v>
+      </c>
+      <c r="C76" s="102">
         <v>41422</v>
       </c>
-      <c r="D76" s="101"/>
+      <c r="D76" s="103"/>
     </row>
     <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="100">
+        <v>105</v>
+      </c>
+      <c r="C77" s="102">
         <v>41422</v>
       </c>
-      <c r="D77" s="101"/>
+      <c r="D77" s="103"/>
     </row>
     <row r="78" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="101"/>
+        <v>147</v>
+      </c>
+      <c r="C78" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -3032,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -3061,21 +3302,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41424</v>
@@ -3083,13 +3324,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="69">
         <v>4.7916666666666663E-2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="69">
         <v>0.11319444444444444</v>
@@ -3097,19 +3338,19 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3137,129 +3378,129 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="39">
         <v>4.7916666666666663E-2</v>
@@ -3268,11 +3509,11 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="39">
         <v>4.8611111111111112E-2</v>
@@ -3281,20 +3522,20 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="39"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="39">
         <v>4.9999999999999996E-2</v>
@@ -3303,11 +3544,11 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="39">
         <v>7.7083333333333337E-2</v>
@@ -3316,11 +3557,11 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="39">
         <v>7.7777777777777779E-2</v>
@@ -3329,11 +3570,11 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="39">
         <v>9.1666666666666674E-2</v>
@@ -3342,11 +3583,11 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="39">
         <v>0.10555555555555556</v>
@@ -3355,11 +3596,11 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="39">
         <v>0.1111111111111111</v>
@@ -3368,11 +3609,11 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="39"/>
       <c r="C38" s="9"/>
@@ -3395,61 +3636,61 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="C43" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="103"/>
+      <c r="D43" s="105"/>
     </row>
     <row r="44" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
+        <v>194</v>
+      </c>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -3494,10 +3735,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3514,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -3525,21 +3766,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41424</v>
@@ -3547,31 +3788,499 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.91527777777777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="105"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="102">
+        <v>41432</v>
+      </c>
+      <c r="D42" s="103"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="69">
         <v>0.43958333333333338</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="69"/>
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.84583333333333333</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3599,129 +4308,129 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
+      <c r="D16" s="107"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49"/>
       <c r="B29" s="39">
         <v>0.43958333333333338</v>
@@ -3730,11 +4439,11 @@
         <v>0.43958333333333338</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="54"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
       <c r="B30" s="39">
         <v>0.44027777777777777</v>
@@ -3743,11 +4452,11 @@
         <v>0.4465277777777778</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="54"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
       <c r="B31" s="39">
         <v>0.44722222222222219</v>
@@ -3756,11 +4465,11 @@
         <v>0.54305555555555551</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E31" s="54"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="39">
         <v>0.54305555555555551</v>
@@ -3769,11 +4478,11 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E32" s="54"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="49"/>
       <c r="B33" s="39">
         <v>0.70833333333333337</v>
@@ -3782,11 +4491,11 @@
         <v>0.8125</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" s="54"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49"/>
       <c r="B34" s="39">
         <v>0.8125</v>
@@ -3795,11 +4504,11 @@
         <v>0.83194444444444438</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="54"/>
     </row>
-    <row r="35" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49"/>
       <c r="B35" s="39">
         <v>0.83194444444444438</v>
@@ -3808,11 +4517,11 @@
         <v>0.8354166666666667</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" s="54"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="49"/>
       <c r="B36" s="39">
         <v>0.8354166666666667</v>
@@ -3821,90 +4530,90 @@
         <v>0.84583333333333333</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="54"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="49"/>
       <c r="B37" s="39"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="49"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="C42" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="103"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D42" s="105"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="B43" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="100">
+      <c r="C43" s="102">
         <v>41490</v>
       </c>
-      <c r="D43" s="101"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D43" s="103"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -3947,12 +4656,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3969,7 +4678,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -3980,21 +4689,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41424</v>
@@ -4002,13 +4711,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="69">
         <v>0.5625</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="69">
         <v>0.70486111111111116</v>
@@ -4016,19 +4725,19 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4056,129 +4765,129 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49"/>
       <c r="B29" s="39">
         <v>0.56180555555555556</v>
@@ -4187,13 +4896,13 @@
         <v>0.5625</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
       <c r="B30" s="39">
         <v>0.5625</v>
@@ -4202,13 +4911,13 @@
         <v>0.56458333333333333</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
       <c r="B31" s="39">
         <v>0.56527777777777777</v>
@@ -4217,13 +4926,13 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="39">
         <v>0.64583333333333337</v>
@@ -4232,13 +4941,13 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="49"/>
       <c r="B33" s="39">
         <v>0.69097222222222221</v>
@@ -4247,13 +4956,13 @@
         <v>0.70208333333333339</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49"/>
       <c r="B34" s="39">
         <v>0.70277777777777783</v>
@@ -4262,34 +4971,34 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="49"/>
       <c r="B36" s="39"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="49"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -4298,59 +5007,59 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="C41" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="103"/>
+      <c r="D41" s="105"/>
     </row>
     <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="38"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4394,12 +5103,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4416,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -4425,23 +5134,23 @@
         <v>41424</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41424</v>
@@ -4449,479 +5158,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0.91527777777777775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.84652777777777777</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.84861111111111109</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="C33" s="39">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C35" s="39">
-        <v>0.91319444444444453</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39">
-        <v>0.91388888888888886</v>
-      </c>
-      <c r="C36" s="39">
-        <v>0.91527777777777775</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="103"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="100">
-        <v>41432</v>
-      </c>
-      <c r="D42" s="101"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>46</v>
       </c>
       <c r="B4" s="69">
         <v>0.9375</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="69">
         <v>5.4166666666666669E-2</v>
@@ -4929,19 +5172,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4969,129 +5212,129 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49"/>
       <c r="B29" s="39">
         <v>0.9375</v>
@@ -5100,13 +5343,13 @@
         <v>0.93819444444444444</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
       <c r="B30" s="39">
         <v>0.93819444444444444</v>
@@ -5115,13 +5358,13 @@
         <v>0.93958333333333333</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
       <c r="B31" s="39">
         <v>0.97222222222222221</v>
@@ -5130,13 +5373,13 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="39">
         <v>0.99375000000000002</v>
@@ -5145,13 +5388,13 @@
         <v>5.0694444444444452E-2</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="49"/>
       <c r="B33" s="39">
         <v>5.0694444444444452E-2</v>
@@ -5160,41 +5403,41 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="49"/>
       <c r="B36" s="39"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="49"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -5203,63 +5446,69 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="C41" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="103"/>
+      <c r="D41" s="105"/>
     </row>
     <row r="42" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="38"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
+      <c r="C42" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="103"/>
     </row>
     <row r="43" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="49" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="B43" s="38"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-    </row>
-    <row r="44" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" s="103"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="49" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="B44" s="38"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
+      <c r="C44" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" s="103"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5307,13 +5556,13 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="2"/>
     <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.44140625" style="2"/>
@@ -5323,33 +5572,423 @@
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="49"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="105"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="40">
         <v>41424</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41424</v>
@@ -5357,31 +5996,31 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="69">
         <v>0.42777777777777781</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="69"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5409,192 +6048,240 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="127">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C29" s="122">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D29" s="128" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="117">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C30" s="123">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="135" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="118">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C31" s="124">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D31" s="130" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="136" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="119">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C32" s="125">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D32" s="131" t="s">
+        <v>361</v>
+      </c>
+      <c r="E32" s="136" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="49"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="120">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="C33" s="126">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D33" s="132" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" s="136" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="121">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C34" s="127">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="D34" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="136" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="49"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="49"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -5603,63 +6290,63 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="C41" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="103"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="D41" s="105"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="100">
+        <v>143</v>
+      </c>
+      <c r="C42" s="102">
         <v>41425</v>
       </c>
-      <c r="D42" s="101"/>
+      <c r="D42" s="103"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5738,15 +6425,15 @@
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="96" t="s">
-        <v>152</v>
+      <c r="E4" s="98" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5762,96 +6449,96 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="46">
         <v>1</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="45">
         <v>41578</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="46">
         <v>0.9</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="46">
         <v>1</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>151</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5872,55 +6559,55 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -5998,7 +6685,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -6008,7 +6695,7 @@
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6020,7 +6707,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -6032,7 +6719,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -6044,7 +6731,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -6054,7 +6741,7 @@
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -6066,7 +6753,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -6078,7 +6765,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -6090,7 +6777,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6100,7 +6787,7 @@
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6112,7 +6799,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -6122,7 +6809,7 @@
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -6134,7 +6821,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -6144,7 +6831,7 @@
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -6156,7 +6843,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -6166,7 +6853,7 @@
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -6178,24 +6865,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="13" t="s">
         <v>10</v>
@@ -6205,7 +6892,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>11</v>
@@ -6215,7 +6902,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="9" t="s">
         <v>10</v>
@@ -6225,7 +6912,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
         <v>11</v>
@@ -6235,7 +6922,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="9" t="s">
         <v>10</v>
@@ -6245,7 +6932,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
         <v>11</v>
@@ -6255,7 +6942,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="9" t="s">
         <v>10</v>
@@ -6265,7 +6952,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="20" t="s">
         <v>11</v>
@@ -6275,7 +6962,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="9" t="s">
         <v>10</v>
@@ -6285,7 +6972,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19"/>
       <c r="B32" s="20" t="s">
         <v>11</v>
@@ -6295,7 +6982,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="9" t="s">
         <v>10</v>
@@ -6305,7 +6992,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="20" t="s">
         <v>11</v>
@@ -6315,7 +7002,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="9" t="s">
         <v>10</v>
@@ -6325,7 +7012,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="20" t="s">
         <v>11</v>
@@ -6335,7 +7022,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="9" t="s">
         <v>10</v>
@@ -6365,8 +7052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6385,29 +7072,29 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="4" spans="1:12" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
@@ -6423,13 +7110,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="G4" s="25" t="s">
         <v>207</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>27</v>
@@ -6444,7 +7131,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
@@ -6452,13 +7139,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="74">
         <v>41424</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="27">
         <v>9</v>
@@ -6472,26 +7159,26 @@
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="73" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>2</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="74">
         <v>41424</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="27">
         <v>3</v>
@@ -6505,7 +7192,7 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
@@ -6515,13 +7202,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="74">
         <v>41424</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7" s="27">
         <v>6</v>
@@ -6535,12 +7222,12 @@
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
@@ -6548,13 +7235,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="74">
         <v>41424</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="27">
         <v>9</v>
@@ -6568,26 +7255,26 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="73" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>5</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="74">
         <v>41424</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="27">
         <v>3</v>
@@ -6601,7 +7288,7 @@
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -6611,13 +7298,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="74">
         <v>41424</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10" s="27">
         <v>3</v>
@@ -6631,7 +7318,7 @@
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -6641,13 +7328,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="74">
         <v>41424</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="27">
         <v>6</v>
@@ -6661,12 +7348,12 @@
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72.599999999999994" x14ac:dyDescent="0.3">
@@ -6674,13 +7361,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="74">
         <v>41424</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="27">
         <v>6</v>
@@ -6694,12 +7381,12 @@
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72.599999999999994" x14ac:dyDescent="0.3">
@@ -6707,13 +7394,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="74">
         <v>41424</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" s="27">
         <v>9</v>
@@ -6727,26 +7414,26 @@
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="73" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>10</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="74">
         <v>41424</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E14" s="27">
         <v>3</v>
@@ -6760,12 +7447,12 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>11</v>
       </c>
@@ -6783,7 +7470,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
@@ -6808,49 +7495,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="15312" topLeftCell="G1"/>
+      <selection activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="14.109375" style="2"/>
-    <col min="4" max="4" width="20.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2"/>
-    <col min="7" max="7" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="14.109375" style="2"/>
+    <col min="4" max="4" width="15.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2"/>
+    <col min="8" max="8" width="22.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="14.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
@@ -6858,191 +7551,333 @@
         <v>34</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="115" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="K6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="L6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A7" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="112" t="s">
+        <v>355</v>
+      </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="116" t="s">
+        <v>359</v>
+      </c>
       <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="112"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="27"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" s="116"/>
+    </row>
+    <row r="9" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A9" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" s="112" t="s">
+        <v>356</v>
+      </c>
       <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="27"/>
+      <c r="J9" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" s="116"/>
+    </row>
+    <row r="10" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A10" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="114" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="112"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="27"/>
+      <c r="J10" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="K10" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" s="116"/>
+    </row>
+    <row r="11" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="112" t="s">
+        <v>354</v>
+      </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="27"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="L11" s="116"/>
+    </row>
+    <row r="12" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H12" s="112" t="s">
+        <v>357</v>
+      </c>
       <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="27"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="L12" s="116"/>
+    </row>
+    <row r="13" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="112" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="112" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="112" t="s">
+        <v>357</v>
+      </c>
       <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="116"/>
+      <c r="K13" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="L13" s="116"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7066,37 +7901,37 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="E1" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="F1" s="86" t="s">
         <v>265</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F3" s="90">
         <v>4.5</v>
@@ -7105,22 +7940,22 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="87" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F4" s="90">
         <v>12.5</v>
@@ -7128,19 +7963,19 @@
     </row>
     <row r="5" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F5" s="90">
         <v>24.1</v>
@@ -7148,17 +7983,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D6" s="89"/>
       <c r="E6" s="87" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="90">
         <v>13.3</v>
@@ -7166,17 +8001,17 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F7" s="90">
         <v>17.899999999999999</v>
@@ -7184,17 +8019,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D8" s="89"/>
       <c r="E8" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F8" s="90">
         <v>8.9</v>
@@ -7202,17 +8037,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D9" s="89"/>
       <c r="E9" s="87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F9" s="90">
         <v>14.3</v>
@@ -7220,17 +8055,17 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D10" s="89"/>
       <c r="E10" s="87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F10" s="90">
         <v>4.5</v>
@@ -7238,19 +8073,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F14" s="90">
         <v>22</v>
@@ -7259,22 +8094,22 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="89"/>
       <c r="E15" s="87" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F15" s="90">
         <v>5</v>
@@ -7282,17 +8117,17 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D16" s="91"/>
       <c r="E16" s="87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F16" s="90">
         <v>38</v>
@@ -7300,17 +8135,17 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D17" s="91"/>
       <c r="E17" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F17" s="92">
         <f>F16/2</f>
@@ -7319,16 +8154,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F18" s="90">
         <v>1</v>
@@ -7336,17 +8171,17 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D19" s="91"/>
       <c r="E19" s="87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F19" s="92">
         <v>10</v>
@@ -7354,17 +8189,17 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D20" s="91"/>
       <c r="E20" s="87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F20" s="92">
         <v>5</v>
@@ -7391,13 +8226,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="87"/>
@@ -7408,18 +8243,18 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="87"/>
@@ -7429,13 +8264,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="88" t="s">
         <v>295</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>298</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="87"/>
@@ -7445,13 +8280,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D26" s="91"/>
       <c r="E26" s="87"/>
@@ -7461,13 +8296,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D27" s="91"/>
       <c r="F27">
@@ -7492,13 +8327,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D30" s="91"/>
       <c r="F30">
@@ -7508,21 +8343,21 @@
         <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F31">
         <v>25</v>
@@ -7530,16 +8365,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>303</v>
-      </c>
       <c r="D32" s="91" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F32">
         <v>43</v>
@@ -7547,13 +8382,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D33" s="91"/>
       <c r="F33">
@@ -7562,13 +8397,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D34" s="91"/>
       <c r="F34">
@@ -7589,13 +8424,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D37" s="91"/>
       <c r="F37">
@@ -7605,21 +8440,21 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="91" t="s">
         <v>306</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>309</v>
       </c>
       <c r="F38">
         <v>20</v>
@@ -7627,13 +8462,13 @@
     </row>
     <row r="39" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D39" s="91"/>
       <c r="F39">
@@ -7642,13 +8477,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D40" s="91"/>
       <c r="F40">
@@ -7657,13 +8492,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B41" s="87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -7680,10 +8515,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -7698,18 +8533,18 @@
         <v>300</v>
       </c>
       <c r="H44" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="88" t="s">
         <v>311</v>
-      </c>
-      <c r="C45" s="88" t="s">
-        <v>314</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -7724,18 +8559,18 @@
         <v>200</v>
       </c>
       <c r="H45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="87" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C46" s="88" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -7749,10 +8584,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="87" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -7766,10 +8601,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -7805,366 +8640,366 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="C2" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="E2" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="77" t="s">
+      <c r="F2" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="77" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" t="s">
         <v>229</v>
-      </c>
-      <c r="F5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="78">
         <v>41453</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="78">
         <v>41432</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D16" s="78">
         <v>41439</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" s="78">
         <v>41432</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="78">
         <v>41432</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D22" s="78">
         <v>41439</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -8177,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8195,7 +9030,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -8206,21 +9041,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41421</v>
@@ -8228,13 +9063,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="41">
         <v>0.45069444444444445</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="41">
         <v>0.52152777777777781</v>
@@ -8242,19 +9077,19 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -8282,134 +9117,134 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="B17" s="106"/>
+      <c r="C17" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105" t="s">
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="104" t="s">
+      <c r="B18" s="106"/>
+      <c r="C18" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="105"/>
+      <c r="D18" s="107"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8421,10 +9256,10 @@
         <v>11.04</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8436,13 +9271,13 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="39">
         <v>0.47638888888888892</v>
@@ -8451,13 +9286,13 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="39">
         <v>0.48194444444444445</v>
@@ -8466,13 +9301,13 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="39">
         <v>0.49652777777777773</v>
@@ -8481,13 +9316,13 @@
         <v>0.50208333333333333</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="39">
         <v>0.50763888888888886</v>
@@ -8496,125 +9331,125 @@
         <v>0.52152777777777781</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="C43" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="103"/>
-    </row>
-    <row r="44" spans="1:5" ht="153" x14ac:dyDescent="0.25">
+      <c r="D43" s="105"/>
+    </row>
+    <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="100">
+        <v>81</v>
+      </c>
+      <c r="C44" s="102">
         <v>41423</v>
       </c>
-      <c r="D44" s="101"/>
+      <c r="D44" s="103"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="101"/>
+        <v>81</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="103"/>
     </row>
     <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="100">
+        <v>81</v>
+      </c>
+      <c r="C46" s="102">
         <v>41423</v>
       </c>
-      <c r="D46" s="101"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="100">
+        <v>61</v>
+      </c>
+      <c r="C47" s="102">
         <v>41421</v>
       </c>
-      <c r="D47" s="101"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="100">
+        <v>59</v>
+      </c>
+      <c r="C48" s="102">
         <v>41421</v>
       </c>
-      <c r="D48" s="101"/>
+      <c r="D48" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -8659,7 +9494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
@@ -8677,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -8688,21 +9523,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="40">
         <v>41421</v>
@@ -8710,13 +9545,13 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="55">
         <v>0.55694444444444446</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="55">
         <v>0.81736111111111109</v>
@@ -8724,19 +9559,19 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -8764,129 +9599,129 @@
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="107"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="105"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="105"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="105"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="105"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="105"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="42">
         <v>0.55694444444444446</v>
@@ -8895,13 +9730,13 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="42">
         <v>0.56874999999999998</v>
@@ -8910,13 +9745,13 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="42">
         <v>0.64166666666666672</v>
@@ -8925,13 +9760,13 @@
         <v>0.6430555555555556</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="42">
         <v>0.64444444444444449</v>
@@ -8940,13 +9775,13 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="42">
         <v>0.71250000000000002</v>
@@ -8955,13 +9790,13 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="42">
         <v>0.72291666666666676</v>
@@ -8970,13 +9805,13 @@
         <v>0.73472222222222217</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="42">
         <v>0.73472222222222217</v>
@@ -8985,13 +9820,13 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="42">
         <v>0.77847222222222223</v>
@@ -9000,13 +9835,13 @@
         <v>0.78125</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="42">
         <v>0.78194444444444444</v>
@@ -9015,13 +9850,13 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="42">
         <v>0.80138888888888893</v>
@@ -9030,10 +9865,10 @@
         <v>0.80763888888888891</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9045,10 +9880,10 @@
         <v>0.81180555555555556</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9060,77 +9895,77 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="C43" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="103"/>
+      <c r="D43" s="105"/>
     </row>
     <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="101"/>
+      <c r="D44" s="103"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="100">
+        <v>81</v>
+      </c>
+      <c r="C45" s="102">
         <v>41422</v>
       </c>
-      <c r="D45" s="101"/>
+      <c r="D45" s="103"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
@@ -775,9 +775,6 @@
     <t>Generar la definición de defectos menores y defectos mayores</t>
   </si>
   <si>
-    <t>Junta 7. Producir un plan de calidad</t>
-  </si>
-  <si>
     <t>Junta 8. Prepararse para la reunión con la gerencia</t>
   </si>
   <si>
@@ -1145,6 +1142,9 @@
   </si>
   <si>
     <t>Launch Evaluation</t>
+  </si>
+  <si>
+    <t>Junta PM. Postmortem</t>
   </si>
 </sst>
 </file>
@@ -1850,45 +1850,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1968,6 +1929,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2287,32 +2287,32 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="76" t="s">
         <v>247</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>250</v>
-      </c>
       <c r="D4" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
         <v>106</v>
@@ -2323,24 +2323,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="84" t="s">
         <v>255</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="84" t="s">
         <v>258</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -2431,17 +2431,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -2473,106 +2473,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -2787,10 +2787,10 @@
       <c r="B44" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="105" t="s">
+      <c r="C44" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="105"/>
+      <c r="D44" s="136"/>
     </row>
     <row r="45" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -2799,10 +2799,10 @@
       <c r="B45" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="102">
+      <c r="C45" s="133">
         <v>41422</v>
       </c>
-      <c r="D45" s="103"/>
+      <c r="D45" s="134"/>
     </row>
     <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -2811,10 +2811,10 @@
       <c r="B46" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="102">
+      <c r="C46" s="133">
         <v>41422</v>
       </c>
-      <c r="D46" s="103"/>
+      <c r="D46" s="134"/>
     </row>
     <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
@@ -2823,10 +2823,10 @@
       <c r="B47" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="102">
+      <c r="C47" s="133">
         <v>41422</v>
       </c>
-      <c r="D47" s="103"/>
+      <c r="D47" s="134"/>
     </row>
     <row r="48" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
@@ -2835,10 +2835,10 @@
       <c r="B48" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="133">
         <v>41422</v>
       </c>
-      <c r="D48" s="103"/>
+      <c r="D48" s="134"/>
     </row>
     <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
@@ -2847,10 +2847,10 @@
       <c r="B49" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="102">
+      <c r="C49" s="133">
         <v>41422</v>
       </c>
-      <c r="D49" s="103"/>
+      <c r="D49" s="134"/>
     </row>
     <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
@@ -2859,10 +2859,10 @@
       <c r="B50" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="102">
+      <c r="C50" s="133">
         <v>41422</v>
       </c>
-      <c r="D50" s="103"/>
+      <c r="D50" s="134"/>
     </row>
     <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
@@ -2871,10 +2871,10 @@
       <c r="B51" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="102">
+      <c r="C51" s="133">
         <v>41422</v>
       </c>
-      <c r="D51" s="103"/>
+      <c r="D51" s="134"/>
     </row>
     <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
@@ -2883,10 +2883,10 @@
       <c r="B52" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="102">
+      <c r="C52" s="133">
         <v>41422</v>
       </c>
-      <c r="D52" s="103"/>
+      <c r="D52" s="134"/>
     </row>
     <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
@@ -2895,10 +2895,10 @@
       <c r="B53" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="102">
+      <c r="C53" s="133">
         <v>41422</v>
       </c>
-      <c r="D53" s="103"/>
+      <c r="D53" s="134"/>
     </row>
     <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
@@ -2907,10 +2907,10 @@
       <c r="B54" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="102">
+      <c r="C54" s="133">
         <v>41422</v>
       </c>
-      <c r="D54" s="103"/>
+      <c r="D54" s="134"/>
     </row>
     <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
@@ -2919,10 +2919,10 @@
       <c r="B55" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="102">
+      <c r="C55" s="133">
         <v>41422</v>
       </c>
-      <c r="D55" s="103"/>
+      <c r="D55" s="134"/>
     </row>
     <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
@@ -2931,10 +2931,10 @@
       <c r="B56" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="102">
+      <c r="C56" s="133">
         <v>41422</v>
       </c>
-      <c r="D56" s="103"/>
+      <c r="D56" s="134"/>
     </row>
     <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
@@ -2943,10 +2943,10 @@
       <c r="B57" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="102">
+      <c r="C57" s="133">
         <v>41422</v>
       </c>
-      <c r="D57" s="103"/>
+      <c r="D57" s="134"/>
     </row>
     <row r="58" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
@@ -2955,10 +2955,10 @@
       <c r="B58" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="102">
+      <c r="C58" s="133">
         <v>41422</v>
       </c>
-      <c r="D58" s="103"/>
+      <c r="D58" s="134"/>
     </row>
     <row r="59" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
@@ -2967,10 +2967,10 @@
       <c r="B59" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="102">
+      <c r="C59" s="133">
         <v>41422</v>
       </c>
-      <c r="D59" s="103"/>
+      <c r="D59" s="134"/>
     </row>
     <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
@@ -2979,10 +2979,10 @@
       <c r="B60" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="102">
+      <c r="C60" s="133">
         <v>41422</v>
       </c>
-      <c r="D60" s="103"/>
+      <c r="D60" s="134"/>
     </row>
     <row r="61" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
@@ -2991,10 +2991,10 @@
       <c r="B61" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="102">
+      <c r="C61" s="133">
         <v>41422</v>
       </c>
-      <c r="D61" s="103"/>
+      <c r="D61" s="134"/>
     </row>
     <row r="62" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
@@ -3003,10 +3003,10 @@
       <c r="B62" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="102">
+      <c r="C62" s="133">
         <v>41422</v>
       </c>
-      <c r="D62" s="103"/>
+      <c r="D62" s="134"/>
     </row>
     <row r="63" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
@@ -3015,10 +3015,10 @@
       <c r="B63" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="102">
+      <c r="C63" s="133">
         <v>41422</v>
       </c>
-      <c r="D63" s="103"/>
+      <c r="D63" s="134"/>
     </row>
     <row r="64" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
@@ -3027,10 +3027,10 @@
       <c r="B64" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="102">
+      <c r="C64" s="133">
         <v>41422</v>
       </c>
-      <c r="D64" s="103"/>
+      <c r="D64" s="134"/>
     </row>
     <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
@@ -3039,10 +3039,10 @@
       <c r="B65" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="102">
+      <c r="C65" s="133">
         <v>41422</v>
       </c>
-      <c r="D65" s="103"/>
+      <c r="D65" s="134"/>
     </row>
     <row r="66" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
@@ -3051,10 +3051,10 @@
       <c r="B66" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="102">
+      <c r="C66" s="133">
         <v>41422</v>
       </c>
-      <c r="D66" s="103"/>
+      <c r="D66" s="134"/>
     </row>
     <row r="67" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
@@ -3063,10 +3063,10 @@
       <c r="B67" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="102">
+      <c r="C67" s="133">
         <v>41422</v>
       </c>
-      <c r="D67" s="103"/>
+      <c r="D67" s="134"/>
     </row>
     <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
@@ -3075,10 +3075,10 @@
       <c r="B68" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C68" s="102">
+      <c r="C68" s="133">
         <v>41422</v>
       </c>
-      <c r="D68" s="103"/>
+      <c r="D68" s="134"/>
     </row>
     <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
@@ -3087,10 +3087,10 @@
       <c r="B69" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="102">
+      <c r="C69" s="133">
         <v>41422</v>
       </c>
-      <c r="D69" s="103"/>
+      <c r="D69" s="134"/>
     </row>
     <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
@@ -3099,10 +3099,10 @@
       <c r="B70" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="102">
+      <c r="C70" s="133">
         <v>41422</v>
       </c>
-      <c r="D70" s="103"/>
+      <c r="D70" s="134"/>
     </row>
     <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
@@ -3111,10 +3111,10 @@
       <c r="B71" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="102">
+      <c r="C71" s="133">
         <v>41422</v>
       </c>
-      <c r="D71" s="103"/>
+      <c r="D71" s="134"/>
     </row>
     <row r="72" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
@@ -3123,10 +3123,10 @@
       <c r="B72" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="102">
+      <c r="C72" s="133">
         <v>41422</v>
       </c>
-      <c r="D72" s="103"/>
+      <c r="D72" s="134"/>
     </row>
     <row r="73" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
@@ -3135,10 +3135,10 @@
       <c r="B73" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="102">
+      <c r="C73" s="133">
         <v>41422</v>
       </c>
-      <c r="D73" s="103"/>
+      <c r="D73" s="134"/>
     </row>
     <row r="74" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
@@ -3147,10 +3147,10 @@
       <c r="B74" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="102">
+      <c r="C74" s="133">
         <v>41422</v>
       </c>
-      <c r="D74" s="103"/>
+      <c r="D74" s="134"/>
     </row>
     <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
@@ -3159,10 +3159,10 @@
       <c r="B75" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="102">
+      <c r="C75" s="133">
         <v>41422</v>
       </c>
-      <c r="D75" s="103"/>
+      <c r="D75" s="134"/>
     </row>
     <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
@@ -3171,10 +3171,10 @@
       <c r="B76" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="102">
+      <c r="C76" s="133">
         <v>41422</v>
       </c>
-      <c r="D76" s="103"/>
+      <c r="D76" s="134"/>
     </row>
     <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
@@ -3183,10 +3183,10 @@
       <c r="B77" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="102">
+      <c r="C77" s="133">
         <v>41422</v>
       </c>
-      <c r="D77" s="103"/>
+      <c r="D77" s="134"/>
     </row>
     <row r="78" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
@@ -3195,29 +3195,42 @@
       <c r="B78" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="102" t="s">
+      <c r="C78" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="103"/>
+      <c r="D78" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -3234,35 +3247,22 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3340,17 +3340,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3382,106 +3382,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -3641,10 +3641,10 @@
       <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="105"/>
+      <c r="D43" s="136"/>
     </row>
     <row r="44" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -3653,65 +3653,47 @@
       <c r="B44" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -3728,6 +3710,24 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3804,17 +3804,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="108" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="B7" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3846,106 +3846,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -4105,10 +4105,10 @@
       <c r="B41" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="105"/>
+      <c r="D41" s="136"/>
     </row>
     <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
@@ -4117,46 +4117,2238 @@
       <c r="B42" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="102">
+      <c r="C42" s="133">
         <v>41432</v>
       </c>
-      <c r="D42" s="103"/>
+      <c r="D42" s="134"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="131"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="135"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="54"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.8125</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.8125</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="136"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="133">
+        <v>41490</v>
+      </c>
+      <c r="D43" s="134"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.5625</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.70486111111111116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="131"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="135"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="136"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.9375</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="131"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="135"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.9375</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="C32" s="39">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="C33" s="39">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="136"/>
+    </row>
+    <row r="42" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="134" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="134"/>
+    </row>
+    <row r="43" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="134" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" s="134"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="134" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" s="134"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="131"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="131"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="131"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="135"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="49"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="136"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="134"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="134"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="134"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.60555555555555551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="131"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="131"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="135"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="114">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C29" s="109">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="104">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C30" s="110">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="122" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="105">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C31" s="111">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>359</v>
+      </c>
+      <c r="E31" s="123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="106">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C32" s="112">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="107">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="C33" s="113">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="108">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C34" s="114">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="D34" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="136"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="133">
+        <v>41425</v>
+      </c>
+      <c r="D42" s="134"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4199,2196 +6391,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0.84583333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="107"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="107"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="107"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="107"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="107"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.4465277777777778</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.44722222222222219</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="54"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="54"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C33" s="39">
-        <v>0.8125</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.8125</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="C35" s="39">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="C36" s="39">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="105"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="102">
-        <v>41490</v>
-      </c>
-      <c r="D43" s="103"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.5625</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0.70486111111111116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="107"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="107"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="107"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="107"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="107"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.5625</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.5625</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.56458333333333333</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="C33" s="39">
-        <v>0.70208333333333339</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.70277777777777783</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="105"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.9375</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69">
-        <v>5.4166666666666669E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="107"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="107"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="107"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="107"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="107"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.99375000000000002</v>
-      </c>
-      <c r="C32" s="39">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="C33" s="39">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="105"/>
-    </row>
-    <row r="42" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="D42" s="103"/>
-    </row>
-    <row r="43" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="D43" s="103"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="D44" s="103"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="107"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="107"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="107"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="107"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="107"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="107"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="49"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="105"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="103"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103"/>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.42777777777777781</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="107"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="107"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="107"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="107"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="107"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="127">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="C29" s="122">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="D29" s="128" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="134" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="117">
-        <v>0.46111111111111108</v>
-      </c>
-      <c r="C30" s="123">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D30" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="135" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="118">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="C31" s="124">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="D31" s="130" t="s">
-        <v>360</v>
-      </c>
-      <c r="E31" s="136" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="119">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="C32" s="125">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="D32" s="131" t="s">
-        <v>361</v>
-      </c>
-      <c r="E32" s="136" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="120">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="C33" s="126">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D33" s="132" t="s">
-        <v>362</v>
-      </c>
-      <c r="E33" s="136" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="121">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C34" s="127">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="D34" s="133" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="136" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="105"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="102">
-        <v>41425</v>
-      </c>
-      <c r="D42" s="103"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
@@ -6425,14 +6427,14 @@
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="126" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6449,7 +6451,7 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
@@ -7072,29 +7074,29 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="4" spans="1:12" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
@@ -7554,13 +7556,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="115" t="s">
-        <v>349</v>
+      <c r="F6" s="102" t="s">
+        <v>348</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>8</v>
@@ -7582,235 +7584,235 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="69" x14ac:dyDescent="0.3">
-      <c r="A7" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="114" t="s">
+      <c r="A7" s="100" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="112" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="112" t="s">
+      <c r="B7" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="112" t="s">
-        <v>323</v>
-      </c>
-      <c r="F7" s="114" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" s="112" t="s">
-        <v>355</v>
+      <c r="F7" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>354</v>
       </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="116" t="s">
-        <v>359</v>
+      <c r="J7" s="103" t="s">
+        <v>358</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="C8" s="99" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" s="99"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A9" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C9" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D9" s="99" t="s">
         <v>331</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E9" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="K9" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="L9" s="103"/>
+    </row>
+    <row r="10" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A10" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="K10" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="114" t="s">
-        <v>350</v>
-      </c>
-      <c r="G8" s="114" t="s">
+      <c r="E11" s="99" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="L8" s="116"/>
-    </row>
-    <row r="9" spans="1:12" ht="69" x14ac:dyDescent="0.3">
-      <c r="A9" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="112" t="s">
+      <c r="I11" s="27"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" s="103"/>
+    </row>
+    <row r="12" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="L12" s="103"/>
+    </row>
+    <row r="13" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="F9" s="114" t="s">
-        <v>350</v>
-      </c>
-      <c r="G9" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="H9" s="112" t="s">
+      <c r="E13" s="99" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" s="99" t="s">
         <v>356</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="K9" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="L9" s="116"/>
-    </row>
-    <row r="10" spans="1:12" ht="69" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="B10" s="114" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="112" t="s">
-        <v>334</v>
-      </c>
-      <c r="F10" s="114" t="s">
-        <v>351</v>
-      </c>
-      <c r="G10" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="K10" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="L10" s="116"/>
-    </row>
-    <row r="11" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" s="114" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="112" t="s">
-        <v>336</v>
-      </c>
-      <c r="F11" s="114" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="L11" s="116"/>
-    </row>
-    <row r="12" spans="1:12" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="B12" s="114" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="112" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="114" t="s">
-        <v>350</v>
-      </c>
-      <c r="G12" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" s="112" t="s">
-        <v>357</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="L12" s="116"/>
-    </row>
-    <row r="13" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="114" t="s">
-        <v>340</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="112" t="s">
-        <v>341</v>
-      </c>
-      <c r="F13" s="114" t="s">
-        <v>350</v>
-      </c>
-      <c r="G13" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="H13" s="112" t="s">
-        <v>357</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116" t="s">
-        <v>359</v>
-      </c>
-      <c r="L13" s="116"/>
+      <c r="L13" s="103"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -7823,8 +7825,8 @@
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="109"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -7837,8 +7839,8 @@
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="109"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -7851,8 +7853,8 @@
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -7865,8 +7867,8 @@
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="109"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -7901,37 +7903,37 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="C1" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="D1" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="E1" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="F1" s="86" t="s">
         <v>264</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="C3" s="88" t="s">
         <v>267</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>268</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F3" s="90">
         <v>4.5</v>
@@ -7940,22 +7942,22 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>271</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" s="90">
         <v>12.5</v>
@@ -7963,19 +7965,19 @@
     </row>
     <row r="5" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="D5" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="89" t="s">
-        <v>274</v>
-      </c>
       <c r="E5" s="87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" s="90">
         <v>24.1</v>
@@ -7983,17 +7985,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>275</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>276</v>
       </c>
       <c r="D6" s="89"/>
       <c r="E6" s="87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="90">
         <v>13.3</v>
@@ -8001,17 +8003,17 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>277</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>278</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="90">
         <v>17.899999999999999</v>
@@ -8019,17 +8021,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="88" t="s">
         <v>279</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>280</v>
       </c>
       <c r="D8" s="89"/>
       <c r="E8" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" s="90">
         <v>8.9</v>
@@ -8037,17 +8039,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>281</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>282</v>
       </c>
       <c r="D9" s="89"/>
       <c r="E9" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F9" s="90">
         <v>14.3</v>
@@ -8055,17 +8057,17 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="88" t="s">
         <v>283</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>284</v>
       </c>
       <c r="D10" s="89"/>
       <c r="E10" s="87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="90">
         <v>4.5</v>
@@ -8073,19 +8075,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="88" t="s">
+      <c r="D14" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="D14" s="91" t="s">
-        <v>287</v>
-      </c>
       <c r="E14" s="87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F14" s="90">
         <v>22</v>
@@ -8094,22 +8096,22 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>270</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>271</v>
       </c>
       <c r="D15" s="89"/>
       <c r="E15" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F15" s="90">
         <v>5</v>
@@ -8117,17 +8119,17 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="88" t="s">
         <v>277</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>278</v>
       </c>
       <c r="D16" s="91"/>
       <c r="E16" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F16" s="90">
         <v>38</v>
@@ -8135,17 +8137,17 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="88" t="s">
         <v>279</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>280</v>
       </c>
       <c r="D17" s="91"/>
       <c r="E17" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F17" s="92">
         <f>F16/2</f>
@@ -8154,16 +8156,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>290</v>
-      </c>
       <c r="E18" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F18" s="90">
         <v>1</v>
@@ -8171,17 +8173,17 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="91"/>
       <c r="E19" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F19" s="92">
         <v>10</v>
@@ -8189,17 +8191,17 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="88" t="s">
         <v>283</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>284</v>
       </c>
       <c r="D20" s="91"/>
       <c r="E20" s="87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" s="92">
         <v>5</v>
@@ -8226,13 +8228,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="88" t="s">
         <v>267</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>268</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="87"/>
@@ -8243,18 +8245,18 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="87"/>
@@ -8264,13 +8266,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="87"/>
@@ -8280,13 +8282,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D26" s="91"/>
       <c r="E26" s="87"/>
@@ -8296,13 +8298,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="88" t="s">
         <v>283</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>284</v>
       </c>
       <c r="D27" s="91"/>
       <c r="F27">
@@ -8327,13 +8329,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="88" t="s">
         <v>267</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>268</v>
       </c>
       <c r="D30" s="91"/>
       <c r="F30">
@@ -8343,21 +8345,21 @@
         <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="B31" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="C31" s="88" t="s">
+      <c r="D31" s="91" t="s">
         <v>298</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>299</v>
       </c>
       <c r="F31">
         <v>25</v>
@@ -8365,16 +8367,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="91" t="s">
         <v>300</v>
-      </c>
-      <c r="D32" s="91" t="s">
-        <v>301</v>
       </c>
       <c r="F32">
         <v>43</v>
@@ -8382,13 +8384,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D33" s="91"/>
       <c r="F33">
@@ -8397,13 +8399,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C34" s="88" t="s">
         <v>283</v>
-      </c>
-      <c r="C34" s="88" t="s">
-        <v>284</v>
       </c>
       <c r="D34" s="91"/>
       <c r="F34">
@@ -8424,13 +8426,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="88" t="s">
         <v>267</v>
-      </c>
-      <c r="C37" s="88" t="s">
-        <v>268</v>
       </c>
       <c r="D37" s="91"/>
       <c r="F37">
@@ -8440,21 +8442,21 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" s="88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="91" t="s">
         <v>305</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>306</v>
       </c>
       <c r="F38">
         <v>20</v>
@@ -8462,13 +8464,13 @@
     </row>
     <row r="39" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D39" s="91"/>
       <c r="F39">
@@ -8477,13 +8479,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D40" s="91"/>
       <c r="F40">
@@ -8492,13 +8494,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="88" t="s">
         <v>283</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>284</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -8515,10 +8517,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="88" t="s">
         <v>308</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>309</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -8533,18 +8535,18 @@
         <v>300</v>
       </c>
       <c r="H44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -8559,18 +8561,18 @@
         <v>200</v>
       </c>
       <c r="H45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C46" s="88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -8584,10 +8586,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -8601,10 +8603,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -9079,17 +9081,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -9121,114 +9123,114 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="131"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107" t="s">
+      <c r="B17" s="130"/>
+      <c r="C17" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107" t="s">
+      <c r="B18" s="130"/>
+      <c r="C18" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="107"/>
+      <c r="D18" s="131"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -9386,10 +9388,10 @@
       <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="105"/>
+      <c r="D43" s="136"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -9398,10 +9400,10 @@
       <c r="B44" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="102">
+      <c r="C44" s="133">
         <v>41423</v>
       </c>
-      <c r="D44" s="103"/>
+      <c r="D44" s="134"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -9410,10 +9412,10 @@
       <c r="B45" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="103"/>
+      <c r="D45" s="134"/>
     </row>
     <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -9422,10 +9424,10 @@
       <c r="B46" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="102">
+      <c r="C46" s="133">
         <v>41423</v>
       </c>
-      <c r="D46" s="103"/>
+      <c r="D46" s="134"/>
     </row>
     <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
@@ -9434,10 +9436,10 @@
       <c r="B47" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="102">
+      <c r="C47" s="133">
         <v>41421</v>
       </c>
-      <c r="D47" s="103"/>
+      <c r="D47" s="134"/>
     </row>
     <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
@@ -9446,13 +9448,38 @@
       <c r="B48" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="133">
         <v>41421</v>
       </c>
-      <c r="D48" s="103"/>
+      <c r="D48" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B7:J7"/>
@@ -9460,31 +9487,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9561,17 +9563,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -9603,106 +9605,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
+      <c r="B11" s="131"/>
+      <c r="C11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107" t="s">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -9908,10 +9910,10 @@
       <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="105"/>
+      <c r="D43" s="136"/>
     </row>
     <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -9920,10 +9922,10 @@
       <c r="B44" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="103"/>
+      <c r="D44" s="134"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -9932,68 +9934,43 @@
       <c r="B45" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="102">
+      <c r="C45" s="133">
         <v>41422</v>
       </c>
-      <c r="D45" s="103"/>
+      <c r="D45" s="134"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -10003,6 +9980,31 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/Lanzamiento SWBStrategy/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="2580" windowHeight="6888" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="12780" yWindow="0" windowWidth="2580" windowHeight="6888" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Equipo" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="382">
   <si>
     <t>Measures</t>
   </si>
@@ -1145,6 +1145,63 @@
   </si>
   <si>
     <t>Junta PM. Postmortem</t>
+  </si>
+  <si>
+    <t>Meeting Roles</t>
+  </si>
+  <si>
+    <t>Agenda and Objectives</t>
+  </si>
+  <si>
+    <t>Overview of work done</t>
+  </si>
+  <si>
+    <t>Team goal and plan comparison</t>
+  </si>
+  <si>
+    <t>Alternate team plan</t>
+  </si>
+  <si>
+    <t>Risks</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Tania Mares Espinoza</t>
+  </si>
+  <si>
+    <t>José R. Jiménez Navarro</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Se enviará el plan desarrollado a Marketing para calendarizar una reunión para cubrir dudas del plan.</t>
+  </si>
+  <si>
+    <t>Se autoriza el plan desarrollado por el equipo.</t>
+  </si>
+  <si>
+    <t>Reportes de avance ante Gerencia serán la primera despues de 15 días y posteriormente cada semana.</t>
+  </si>
+  <si>
+    <t>Gerencia solicita un desempeño ágil sin dedicar tanto tiempo a actividades de definición final del producto.</t>
+  </si>
+  <si>
+    <t>Marketing enviará el detalle de criterios de aceptación del manual técnico.</t>
+  </si>
+  <si>
+    <t>Lider y Marketing</t>
+  </si>
+  <si>
+    <t>Marketing y Lider</t>
+  </si>
+  <si>
+    <t>Hoy se envía el plan y el jueves se realiza la reunion.</t>
+  </si>
+  <si>
+    <t>Antes del término del primer ciclo</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1668,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1948,6 +2005,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1957,17 +2026,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2431,17 +2518,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -2473,106 +2560,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="131"/>
+      <c r="D12" s="135"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="131"/>
+      <c r="D13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="135"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="135"/>
+      <c r="B27" s="132"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -2787,10 +2874,10 @@
       <c r="B44" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="136"/>
+      <c r="D44" s="133"/>
     </row>
     <row r="45" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -2799,10 +2886,10 @@
       <c r="B45" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="133">
+      <c r="C45" s="130">
         <v>41422</v>
       </c>
-      <c r="D45" s="134"/>
+      <c r="D45" s="131"/>
     </row>
     <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -2811,10 +2898,10 @@
       <c r="B46" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="133">
+      <c r="C46" s="130">
         <v>41422</v>
       </c>
-      <c r="D46" s="134"/>
+      <c r="D46" s="131"/>
     </row>
     <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
@@ -2823,10 +2910,10 @@
       <c r="B47" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="133">
+      <c r="C47" s="130">
         <v>41422</v>
       </c>
-      <c r="D47" s="134"/>
+      <c r="D47" s="131"/>
     </row>
     <row r="48" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
@@ -2835,10 +2922,10 @@
       <c r="B48" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="133">
+      <c r="C48" s="130">
         <v>41422</v>
       </c>
-      <c r="D48" s="134"/>
+      <c r="D48" s="131"/>
     </row>
     <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
@@ -2847,10 +2934,10 @@
       <c r="B49" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="133">
+      <c r="C49" s="130">
         <v>41422</v>
       </c>
-      <c r="D49" s="134"/>
+      <c r="D49" s="131"/>
     </row>
     <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
@@ -2859,10 +2946,10 @@
       <c r="B50" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="133">
+      <c r="C50" s="130">
         <v>41422</v>
       </c>
-      <c r="D50" s="134"/>
+      <c r="D50" s="131"/>
     </row>
     <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
@@ -2871,10 +2958,10 @@
       <c r="B51" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="133">
+      <c r="C51" s="130">
         <v>41422</v>
       </c>
-      <c r="D51" s="134"/>
+      <c r="D51" s="131"/>
     </row>
     <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
@@ -2883,10 +2970,10 @@
       <c r="B52" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="133">
+      <c r="C52" s="130">
         <v>41422</v>
       </c>
-      <c r="D52" s="134"/>
+      <c r="D52" s="131"/>
     </row>
     <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
@@ -2895,10 +2982,10 @@
       <c r="B53" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="133">
+      <c r="C53" s="130">
         <v>41422</v>
       </c>
-      <c r="D53" s="134"/>
+      <c r="D53" s="131"/>
     </row>
     <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
@@ -2907,10 +2994,10 @@
       <c r="B54" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="133">
+      <c r="C54" s="130">
         <v>41422</v>
       </c>
-      <c r="D54" s="134"/>
+      <c r="D54" s="131"/>
     </row>
     <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
@@ -2919,10 +3006,10 @@
       <c r="B55" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="133">
+      <c r="C55" s="130">
         <v>41422</v>
       </c>
-      <c r="D55" s="134"/>
+      <c r="D55" s="131"/>
     </row>
     <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
@@ -2931,10 +3018,10 @@
       <c r="B56" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="133">
+      <c r="C56" s="130">
         <v>41422</v>
       </c>
-      <c r="D56" s="134"/>
+      <c r="D56" s="131"/>
     </row>
     <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
@@ -2943,10 +3030,10 @@
       <c r="B57" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="133">
+      <c r="C57" s="130">
         <v>41422</v>
       </c>
-      <c r="D57" s="134"/>
+      <c r="D57" s="131"/>
     </row>
     <row r="58" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
@@ -2955,10 +3042,10 @@
       <c r="B58" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="133">
+      <c r="C58" s="130">
         <v>41422</v>
       </c>
-      <c r="D58" s="134"/>
+      <c r="D58" s="131"/>
     </row>
     <row r="59" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
@@ -2967,10 +3054,10 @@
       <c r="B59" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="133">
+      <c r="C59" s="130">
         <v>41422</v>
       </c>
-      <c r="D59" s="134"/>
+      <c r="D59" s="131"/>
     </row>
     <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
@@ -2979,10 +3066,10 @@
       <c r="B60" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="133">
+      <c r="C60" s="130">
         <v>41422</v>
       </c>
-      <c r="D60" s="134"/>
+      <c r="D60" s="131"/>
     </row>
     <row r="61" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
@@ -2991,10 +3078,10 @@
       <c r="B61" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="133">
+      <c r="C61" s="130">
         <v>41422</v>
       </c>
-      <c r="D61" s="134"/>
+      <c r="D61" s="131"/>
     </row>
     <row r="62" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
@@ -3003,10 +3090,10 @@
       <c r="B62" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="133">
+      <c r="C62" s="130">
         <v>41422</v>
       </c>
-      <c r="D62" s="134"/>
+      <c r="D62" s="131"/>
     </row>
     <row r="63" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
@@ -3015,10 +3102,10 @@
       <c r="B63" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="133">
+      <c r="C63" s="130">
         <v>41422</v>
       </c>
-      <c r="D63" s="134"/>
+      <c r="D63" s="131"/>
     </row>
     <row r="64" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
@@ -3027,10 +3114,10 @@
       <c r="B64" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="133">
+      <c r="C64" s="130">
         <v>41422</v>
       </c>
-      <c r="D64" s="134"/>
+      <c r="D64" s="131"/>
     </row>
     <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
@@ -3039,10 +3126,10 @@
       <c r="B65" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="133">
+      <c r="C65" s="130">
         <v>41422</v>
       </c>
-      <c r="D65" s="134"/>
+      <c r="D65" s="131"/>
     </row>
     <row r="66" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
@@ -3051,10 +3138,10 @@
       <c r="B66" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="133">
+      <c r="C66" s="130">
         <v>41422</v>
       </c>
-      <c r="D66" s="134"/>
+      <c r="D66" s="131"/>
     </row>
     <row r="67" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
@@ -3063,10 +3150,10 @@
       <c r="B67" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="133">
+      <c r="C67" s="130">
         <v>41422</v>
       </c>
-      <c r="D67" s="134"/>
+      <c r="D67" s="131"/>
     </row>
     <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
@@ -3075,10 +3162,10 @@
       <c r="B68" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C68" s="133">
+      <c r="C68" s="130">
         <v>41422</v>
       </c>
-      <c r="D68" s="134"/>
+      <c r="D68" s="131"/>
     </row>
     <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
@@ -3087,10 +3174,10 @@
       <c r="B69" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="133">
+      <c r="C69" s="130">
         <v>41422</v>
       </c>
-      <c r="D69" s="134"/>
+      <c r="D69" s="131"/>
     </row>
     <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
@@ -3099,10 +3186,10 @@
       <c r="B70" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="133">
+      <c r="C70" s="130">
         <v>41422</v>
       </c>
-      <c r="D70" s="134"/>
+      <c r="D70" s="131"/>
     </row>
     <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
@@ -3111,10 +3198,10 @@
       <c r="B71" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="133">
+      <c r="C71" s="130">
         <v>41422</v>
       </c>
-      <c r="D71" s="134"/>
+      <c r="D71" s="131"/>
     </row>
     <row r="72" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
@@ -3123,10 +3210,10 @@
       <c r="B72" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="133">
+      <c r="C72" s="130">
         <v>41422</v>
       </c>
-      <c r="D72" s="134"/>
+      <c r="D72" s="131"/>
     </row>
     <row r="73" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
@@ -3135,10 +3222,10 @@
       <c r="B73" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="133">
+      <c r="C73" s="130">
         <v>41422</v>
       </c>
-      <c r="D73" s="134"/>
+      <c r="D73" s="131"/>
     </row>
     <row r="74" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
@@ -3147,10 +3234,10 @@
       <c r="B74" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="133">
+      <c r="C74" s="130">
         <v>41422</v>
       </c>
-      <c r="D74" s="134"/>
+      <c r="D74" s="131"/>
     </row>
     <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
@@ -3159,10 +3246,10 @@
       <c r="B75" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="133">
+      <c r="C75" s="130">
         <v>41422</v>
       </c>
-      <c r="D75" s="134"/>
+      <c r="D75" s="131"/>
     </row>
     <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
@@ -3171,10 +3258,10 @@
       <c r="B76" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="133">
+      <c r="C76" s="130">
         <v>41422</v>
       </c>
-      <c r="D76" s="134"/>
+      <c r="D76" s="131"/>
     </row>
     <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
@@ -3183,10 +3270,10 @@
       <c r="B77" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="133">
+      <c r="C77" s="130">
         <v>41422</v>
       </c>
-      <c r="D77" s="134"/>
+      <c r="D77" s="131"/>
     </row>
     <row r="78" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
@@ -3195,42 +3282,29 @@
       <c r="B78" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="133" t="s">
+      <c r="C78" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="134"/>
+      <c r="D78" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -3247,22 +3321,35 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3340,17 +3427,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3382,106 +3469,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="131"/>
+      <c r="D12" s="135"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="131"/>
+      <c r="D13" s="135"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="135"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="135"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="135"/>
+      <c r="B27" s="132"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -3641,10 +3728,10 @@
       <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="136" t="s">
+      <c r="C43" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="136"/>
+      <c r="D43" s="133"/>
     </row>
     <row r="44" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -3653,47 +3740,65 @@
       <c r="B44" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -3710,24 +3815,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3804,17 +3891,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="136" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3846,106 +3933,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="131"/>
+      <c r="D12" s="135"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="131"/>
+      <c r="D13" s="135"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="135"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="135"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="135"/>
+      <c r="B27" s="132"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -4105,10 +4192,10 @@
       <c r="B41" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="136" t="s">
+      <c r="C41" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="136"/>
+      <c r="D41" s="133"/>
     </row>
     <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
@@ -4117,46 +4204,2354 @@
       <c r="B42" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="133">
+      <c r="C42" s="130">
         <v>41432</v>
       </c>
-      <c r="D42" s="134"/>
+      <c r="D42" s="131"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="135"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="135"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="135"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="135"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="135"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="135"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="132"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="54"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.8125</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.8125</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="133"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="130">
+        <v>41490</v>
+      </c>
+      <c r="D43" s="131"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.5625</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.70486111111111116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="135"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="135"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="135"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="135"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="135"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="135"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="132"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="133"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.9375</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="135"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="135"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="135"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="135"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="135"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="135"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="132"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.9375</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="C32" s="39">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="C33" s="39">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="133"/>
+    </row>
+    <row r="42" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="131"/>
+    </row>
+    <row r="43" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" s="131"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" s="131"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="55">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="135"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="135"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="135"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="135"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="134" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="135"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="135"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="135"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="135"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="134" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" s="135"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="132"/>
+    </row>
+    <row r="28" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="114">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C29" s="114">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="114">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D30" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="C32" s="114">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="114">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="C35" s="114">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="114">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C36" s="114">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="114">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C37" s="114">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="49"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="133"/>
+    </row>
+    <row r="44" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="137" t="s">
+        <v>373</v>
+      </c>
+      <c r="B44" s="142" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" s="131" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" s="131"/>
+    </row>
+    <row r="45" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="138" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="143" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+    </row>
+    <row r="46" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="139" t="s">
+        <v>375</v>
+      </c>
+      <c r="B46" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="130"/>
+      <c r="D46" s="131"/>
+    </row>
+    <row r="47" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="145" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="130"/>
+      <c r="D47" s="131"/>
+    </row>
+    <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" s="141" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="146" t="s">
+        <v>379</v>
+      </c>
+      <c r="C48" s="131" t="s">
+        <v>381</v>
+      </c>
+      <c r="D48" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C48:D48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.60555555555555551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="135"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="135"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="135"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="135"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="135"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="135"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="132"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="114">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C29" s="109">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="104">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C30" s="110">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="122" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="105">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C31" s="111">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>359</v>
+      </c>
+      <c r="E31" s="123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="106">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C32" s="112">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="107">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="C33" s="113">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="108">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C34" s="114">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="D34" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="133"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="130">
+        <v>41425</v>
+      </c>
+      <c r="D42" s="131"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4199,2198 +6594,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0.84583333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="131"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="131"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="131"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="131"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="135"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.44027777777777777</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.4465277777777778</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.44722222222222219</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="54"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="54"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C33" s="39">
-        <v>0.8125</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.8125</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="C35" s="39">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39">
-        <v>0.8354166666666667</v>
-      </c>
-      <c r="C36" s="39">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="136"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="133">
-        <v>41490</v>
-      </c>
-      <c r="D43" s="134"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.5625</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0.70486111111111116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="131"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="131"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="131"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="131"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="135"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.5625</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.5625</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.56458333333333333</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="C33" s="39">
-        <v>0.70208333333333339</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.70277777777777783</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="136"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.9375</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69">
-        <v>5.4166666666666669E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="131"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="131"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="131"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="131"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="135"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="39">
-        <v>0.93819444444444444</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.99375000000000002</v>
-      </c>
-      <c r="C32" s="39">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="C33" s="39">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="136"/>
-    </row>
-    <row r="42" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="134" t="s">
-        <v>316</v>
-      </c>
-      <c r="D42" s="134"/>
-    </row>
-    <row r="43" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="134" t="s">
-        <v>316</v>
-      </c>
-      <c r="D43" s="134"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="134" t="s">
-        <v>316</v>
-      </c>
-      <c r="D44" s="134"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="131"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="131"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="131"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="131"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="131"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="131"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="135"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="49"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="136"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="134"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="134"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="134"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="40">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69">
-        <v>0.42777777777777781</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="69">
-        <v>0.60555555555555551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="131"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="131"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="131"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="131"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="135"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="114">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="C29" s="109">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="D29" s="115" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="121" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="104">
-        <v>0.46111111111111108</v>
-      </c>
-      <c r="C30" s="110">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D30" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="122" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="105">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="C31" s="111">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="D31" s="117" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" s="123" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="106">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="C32" s="112">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="D32" s="118" t="s">
-        <v>360</v>
-      </c>
-      <c r="E32" s="123" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="107">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="C33" s="113">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D33" s="119" t="s">
-        <v>361</v>
-      </c>
-      <c r="E33" s="123" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="108">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C34" s="114">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="D34" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="123" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="136"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="133">
-        <v>41425</v>
-      </c>
-      <c r="D42" s="134"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
@@ -6549,13 +6752,13 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6852,7 +7055,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="53" t="s">
         <v>106</v>
@@ -6862,7 +7065,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
@@ -8943,7 +9146,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -9081,17 +9284,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -9123,114 +9326,114 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="131"/>
+      <c r="D12" s="135"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="131"/>
+      <c r="D13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="135"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="135"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131" t="s">
+      <c r="B17" s="134"/>
+      <c r="C17" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="131"/>
+      <c r="D17" s="135"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131" t="s">
+      <c r="B18" s="134"/>
+      <c r="C18" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="131"/>
+      <c r="D18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="135"/>
+      <c r="B27" s="132"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -9249,7 +9452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="9">
         <v>10.49</v>
@@ -9264,7 +9467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="9">
         <v>11.05</v>
@@ -9388,10 +9591,10 @@
       <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="136" t="s">
+      <c r="C43" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="136"/>
+      <c r="D43" s="133"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -9400,10 +9603,10 @@
       <c r="B44" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="133">
+      <c r="C44" s="130">
         <v>41423</v>
       </c>
-      <c r="D44" s="134"/>
+      <c r="D44" s="131"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -9412,10 +9615,10 @@
       <c r="B45" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="134" t="s">
+      <c r="C45" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="134"/>
+      <c r="D45" s="131"/>
     </row>
     <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -9424,10 +9627,10 @@
       <c r="B46" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="133">
+      <c r="C46" s="130">
         <v>41423</v>
       </c>
-      <c r="D46" s="134"/>
+      <c r="D46" s="131"/>
     </row>
     <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
@@ -9436,10 +9639,10 @@
       <c r="B47" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="133">
+      <c r="C47" s="130">
         <v>41421</v>
       </c>
-      <c r="D47" s="134"/>
+      <c r="D47" s="131"/>
     </row>
     <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
@@ -9448,13 +9651,38 @@
       <c r="B48" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="133">
+      <c r="C48" s="130">
         <v>41421</v>
       </c>
-      <c r="D48" s="134"/>
+      <c r="D48" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -9462,31 +9690,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9563,17 +9766,17 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -9605,106 +9808,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="131"/>
+      <c r="D12" s="135"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="131"/>
+      <c r="D13" s="135"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="135"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="135"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="135"/>
+      <c r="B27" s="132"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -9910,10 +10113,10 @@
       <c r="B43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="136" t="s">
+      <c r="C43" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="136"/>
+      <c r="D43" s="133"/>
     </row>
     <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -9922,10 +10125,10 @@
       <c r="B44" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="134" t="s">
+      <c r="C44" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="134"/>
+      <c r="D44" s="131"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -9934,43 +10137,68 @@
       <c r="B45" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="133">
+      <c r="C45" s="130">
         <v>41422</v>
       </c>
-      <c r="D45" s="134"/>
+      <c r="D45" s="131"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -9980,31 +10208,6 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
